--- a/DB Specification/ENCLICK_테이블 명세서_ADDRESS.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_ADDRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enssel\Documents\스터디\테이블 명세서\초기버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nougat\ProjectFile\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0C8F77-6C65-4E46-A2A1-CE1184152E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED5650-D7AA-4005-983B-5CE3A25B1D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
     <t>PROJECT NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,14 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RECEIVER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECEIVER_PHONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COMMON_CODE</t>
   </si>
   <si>
@@ -531,7 +520,19 @@
     <t>);</t>
   </si>
   <si>
-    <t>2023.11.23 / ver1.0</t>
+    <t>RECEIVER_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_PHONE_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23 / ver1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +803,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,21 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1270,30 +1256,30 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.35546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.2109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="3.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.35546875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1306,15 +1292,15 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -1323,19 +1309,19 @@
       <c r="H2" s="44"/>
       <c r="I2" s="45"/>
       <c r="J2" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -1344,22 +1330,22 @@
       <c r="H3" s="44"/>
       <c r="I3" s="45"/>
       <c r="J3" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -1368,22 +1354,22 @@
       <c r="H4" s="44"/>
       <c r="I4" s="45"/>
       <c r="J4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -1394,16 +1380,16 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
       <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
@@ -1414,29 +1400,29 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="N6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
       <c r="N7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>10</v>
@@ -1448,16 +1434,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="str">
@@ -1465,62 +1451,62 @@
         <v>WHERE OBJECT_NAME (f.referenced_object_id) = 'ADDRESS'</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="2" t="str">
         <f>"USE " &amp; C3</f>
         <v>USE ENCLICK</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="str">
         <f>"IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo." &amp; C4 &amp;"') AND type in (N'U'))"</f>
         <v>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.ADDRESS') AND type in (N'U'))</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="str">
         <f xml:space="preserve"> "DROP TABLE dbo." &amp; C4</f>
         <v>DROP TABLE dbo.ADDRESS</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="N12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="str">
         <f>"USE " &amp; C3</f>
         <v>USE ENCLICK</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="str">
         <f>"CREATE TABLE dbo." &amp; C4 &amp; " ("</f>
         <v>CREATE TABLE dbo.ADDRESS (</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -1538,20 +1524,20 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
@@ -1564,31 +1550,31 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13">
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
@@ -1601,34 +1587,34 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13">
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>1</v>
@@ -1641,23 +1627,23 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K18" s="10"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13">
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
@@ -1670,23 +1656,23 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1</v>
@@ -1699,20 +1685,20 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K20" s="10"/>
       <c r="M20" s="38"/>
       <c r="N20" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13">
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
@@ -1728,20 +1714,20 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K21" s="13"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>15</v>
@@ -1757,15 +1743,15 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K22" s="13"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13">
         <v>9</v>
       </c>
@@ -1773,13 +1759,13 @@
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
@@ -1794,7 +1780,7 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13">
         <v>10</v>
       </c>
@@ -1802,13 +1788,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>7</v>
@@ -1822,10 +1808,10 @@
       <c r="K24" s="10"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13">
         <v>11</v>
       </c>
@@ -1833,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1848,7 +1834,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1862,10 +1848,10 @@
       <c r="K26" s="13"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1879,10 +1865,10 @@
       <c r="K27" s="12"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1897,7 +1883,7 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1911,15 +1897,15 @@
       <c r="K29" s="13"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J30" s="4"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2" t="str">
         <f>"CONSTRAINT PK_" &amp; C4 &amp; " PRIMARY KEY CLUSTERED ("</f>
         <v>CONSTRAINT PK_ADDRESS PRIMARY KEY CLUSTERED (</v>
@@ -1927,12 +1913,12 @@
       <c r="J31" s="4"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>21</v>
@@ -1944,33 +1930,33 @@
       <c r="J32" s="4"/>
       <c r="M32" s="38"/>
       <c r="N32" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="23"/>
       <c r="J33" s="4"/>
       <c r="M33" s="38"/>
       <c r="N33" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="2" t="str">
         <f>IF(C34&lt;&gt;"","ASC","")</f>
         <v/>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" ref="E33:E35" si="0">IF(C35&lt;&gt;"",",","")</f>
+        <f t="shared" ref="E34:E35" si="0">IF(C35&lt;&gt;"",",","")</f>
         <v/>
       </c>
       <c r="J34" s="4"/>
       <c r="M34" s="38"/>
       <c r="N34" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="2" t="str">
         <f t="shared" ref="D35" si="1">IF(C35&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1982,108 +1968,108 @@
       <c r="J35" s="4"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36" s="4"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; $C$5 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'배송지' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS' </v>
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'배송지 UUID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'ADDRESS_UUID' </v>
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2" t="str">
         <f t="shared" ref="B42:B51" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'배송지구분코드' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'COMM_CD' </v>
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'유저 ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'USER_ID' </v>
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'도로명 주소지' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'ADDRESS_1' </v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'상세주소' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'ADDRESS_2' </v>
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'우편번호' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'ZIP_CODE' </v>
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수취인명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'RECEIVER_NAME' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수취인명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'RECEIVER_NM' </v>
       </c>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수취인 번호' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'RECEIVER_PHONE' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수취인 번호' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'RECEIVER_PHONE_NO' </v>
       </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J23 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B23 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'사용여부' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'USED_YN' </v>
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'REGI_DT' </v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </v>
@@ -2113,15 +2099,15 @@
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.2109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.35546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.2109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
@@ -2130,9 +2116,9 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -2140,12 +2126,12 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$2</f>
@@ -2153,17 +2139,17 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$2</f>
-        <v>2023.11.23 / ver1.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2023.11.23 / ver1.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$3</f>
@@ -2171,14 +2157,14 @@
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$3</f>
         <v>김혜민</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
@@ -2189,14 +2175,14 @@
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$4</f>
         <v>ENCLICK</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
@@ -2209,7 +2195,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
@@ -2222,115 +2208,115 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="25">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="25">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="25"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="25"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="25"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="25"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="25"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>ADDRESS</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</f>
         <v>FK_COMMON_CODE_TO_ADDRESS_1</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="29"/>
       <c r="C18" s="23" t="str">
         <f>B9</f>
@@ -2342,26 +2328,26 @@
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="25" t="str">
         <f>C9</f>
         <v>COMMON_CODE</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="29"/>
       <c r="C21" s="35" t="str">
         <f>D9</f>
@@ -2373,38 +2359,38 @@
       </c>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="33"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>ADDRESS</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C18&amp;"_TO_"&amp;C24&amp;"_1"</f>
         <v>FK_COMM_CD_TO_ADDRESS_1</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="29"/>
       <c r="C25" s="23" t="str">
         <f>B10</f>
@@ -2416,7 +2402,7 @@
       </c>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="29"/>
       <c r="C26" s="23">
         <f>B11</f>
@@ -2428,26 +2414,26 @@
       </c>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="25" t="str">
         <f>C10</f>
         <v>USER</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="29"/>
       <c r="C29" s="35" t="str">
         <f>D10</f>
@@ -2459,7 +2445,7 @@
       </c>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="29"/>
       <c r="C30" s="35">
         <f>D11</f>
@@ -2471,145 +2457,129 @@
       </c>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="37" t="s">
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="2" t="s">
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C37" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="48" t="str">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>ADDRESS</v>
       </c>
-      <c r="D41" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="49" t="str">
+      <c r="D41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="37" t="str">
         <f>"FK"&amp;"_"&amp;C41&amp;"_TO_"&amp;C44&amp;"_1"</f>
         <v>FK_ADDRESS_TO_USER_1</v>
       </c>
-      <c r="F41" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="48"/>
-      <c r="C42" s="50" t="str">
+      <c r="F41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="23" t="str">
         <f>B10</f>
         <v>USER_ID</v>
       </c>
-      <c r="D42" s="48" t="str">
+      <c r="D42" s="2" t="str">
         <f>IF(C43&lt;&gt;"",",","")</f>
         <v/>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="51" t="str">
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="25" t="str">
         <f>C10</f>
         <v>USER</v>
       </c>
-      <c r="D44" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="48"/>
-      <c r="C45" s="52" t="str">
+      <c r="D44" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="35" t="str">
         <f>D10</f>
         <v>USER_ID</v>
       </c>
-      <c r="D45" s="48" t="str">
+      <c r="D45" s="2" t="str">
         <f>IF(C46&lt;&gt;"",",","")</f>
         <v/>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/DB Specification/ENCLICK_테이블 명세서_ADDRESS.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_ADDRESS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nougat\ProjectFile\ENCLICK\EnClick-DOCU\DB Specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\workspace\Enclick\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED5650-D7AA-4005-983B-5CE3A25B1D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854C0D1D-1227-4DB2-846C-192D66BB9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,40 +499,38 @@
     <t xml:space="preserve">ADD CONSTRAINT </t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>REFERENCES</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>RECEIVER_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_PHONE_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23 / ver1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FK_COMMON_CODE_TO_ADDRESS_1</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY (</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>REFERENCES</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>RECEIVER_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECEIVER_PHONE_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.23 / ver1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,29 +1253,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.35546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.2109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.35546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>77</v>
       </c>
@@ -1292,7 +1290,7 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
@@ -1312,10 +1310,10 @@
         <v>26</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>27</v>
@@ -1339,7 +1337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
@@ -1363,7 +1361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
@@ -1383,7 +1381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
@@ -1403,7 +1401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
@@ -1411,7 +1409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>WHERE OBJECT_NAME (f.referenced_object_id) = 'ADDRESS'</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="2" t="str">
         <f>"USE " &amp; C3</f>
@@ -1461,14 +1459,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="str">
         <f>"IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo." &amp; C4 &amp;"') AND type in (N'U'))"</f>
         <v>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.ADDRESS') AND type in (N'U'))</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="str">
         <f xml:space="preserve"> "DROP TABLE dbo." &amp; C4</f>
@@ -1478,13 +1476,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="N12" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="str">
         <f>"USE " &amp; C3</f>
@@ -1494,14 +1492,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="str">
         <f>"CREATE TABLE dbo." &amp; C4 &amp; " ("</f>
         <v>CREATE TABLE dbo.ADDRESS (</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -1532,7 +1530,7 @@
       </c>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -1635,7 +1633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -1664,7 +1662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>6</v>
       </c>
@@ -1693,12 +1691,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
@@ -1722,12 +1720,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>15</v>
@@ -1751,7 +1749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>9</v>
       </c>
@@ -1780,7 +1778,7 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>10</v>
       </c>
@@ -1788,7 +1786,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>110</v>
@@ -1811,7 +1809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>11</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1834,7 +1832,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1851,7 +1849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1868,7 +1866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1883,7 +1881,7 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1900,12 +1898,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J30" s="4"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="str">
         <f>"CONSTRAINT PK_" &amp; C4 &amp; " PRIMARY KEY CLUSTERED ("</f>
         <v>CONSTRAINT PK_ADDRESS PRIMARY KEY CLUSTERED (</v>
@@ -1916,7 +1914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
         <v>89</v>
       </c>
@@ -1933,7 +1931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="23"/>
       <c r="J33" s="4"/>
       <c r="M33" s="38"/>
@@ -1941,7 +1939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="2" t="str">
         <f>IF(C34&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1956,7 +1954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="str">
         <f t="shared" ref="D35" si="1">IF(C35&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1971,7 +1969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1981,95 +1979,95 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; $C$5 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'배송지' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS' </v>
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'배송지 UUID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'ADDRESS_UUID' </v>
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="str">
         <f t="shared" ref="B42:B51" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'배송지구분코드' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'COMM_CD' </v>
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'유저 ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'USER_ID' </v>
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'도로명 주소지' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'ADDRESS_1' </v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'상세주소' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'ADDRESS_2' </v>
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'우편번호' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'ZIP_CODE' </v>
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수취인명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'RECEIVER_NM' </v>
       </c>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수취인 번호' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'RECEIVER_PHONE_NO' </v>
       </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J23 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B23 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'사용여부' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'USED_YN' </v>
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'REGI_DT' </v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ADDRESS', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </v>
@@ -2095,19 +2093,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.2109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.35546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.2109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
@@ -2116,7 +2114,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>82</v>
       </c>
@@ -2126,7 +2124,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2144,7 @@
         <v>2023.11.23 / ver1.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>27</v>
@@ -2164,7 +2162,7 @@
         <v>김혜민</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
@@ -2182,7 +2180,7 @@
         <v>ENCLICK</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
@@ -2195,7 +2193,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
@@ -2208,7 +2206,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
@@ -2219,7 +2217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>1</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -2264,37 +2262,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>64</v>
       </c>
@@ -2316,7 +2314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29"/>
       <c r="C18" s="23" t="str">
         <f>B9</f>
@@ -2328,13 +2326,13 @@
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
         <v>74</v>
       </c>
@@ -2347,7 +2345,7 @@
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="29"/>
       <c r="C21" s="35" t="str">
         <f>D9</f>
@@ -2359,7 +2357,7 @@
       </c>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
         <v>68</v>
       </c>
@@ -2368,7 +2366,7 @@
       <c r="E22" s="32"/>
       <c r="F22" s="33"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
         <v>64</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="29"/>
       <c r="C25" s="23" t="str">
         <f>B10</f>
@@ -2402,7 +2400,7 @@
       </c>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="29"/>
       <c r="C26" s="23">
         <f>B11</f>
@@ -2414,13 +2412,13 @@
       </c>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
         <v>74</v>
       </c>
@@ -2433,7 +2431,7 @@
       </c>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
       <c r="C29" s="35" t="str">
         <f>D10</f>
@@ -2445,7 +2443,7 @@
       </c>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
       <c r="C30" s="35">
         <f>D11</f>
@@ -2457,7 +2455,7 @@
       </c>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>68</v>
       </c>
@@ -2466,7 +2464,7 @@
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>116</v>
       </c>
@@ -2477,50 +2475,50 @@
         <v>117</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="35" t="s">
         <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -2539,7 +2537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C42" s="23" t="str">
         <f>B10</f>
         <v>USER_ID</v>
@@ -2549,12 +2547,12 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C45" s="35" t="str">
         <f>D10</f>
         <v>USER_ID</v>
@@ -2576,7 +2574,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>68</v>
       </c>

--- a/DB Specification/ENCLICK_테이블 명세서_ADDRESS.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_ADDRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\workspace\Enclick\EnClick-DOCU\DB Specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nougat\ProjectFile\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854C0D1D-1227-4DB2-846C-192D66BB9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DBA1A1-C554-48DE-A397-6D3E10DAADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -485,10 +485,6 @@
     <t>VARCHAR(250)</t>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHAR(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,15 +518,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.23 / ver1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATETIME2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FK_COMMON_CODE_TO_ADDRESS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.14 / ver1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1310,7 @@
         <v>26</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>15</v>
@@ -1757,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>110</v>
@@ -1786,7 +1786,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>110</v>
@@ -1817,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2093,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F2" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$2</f>
-        <v>2023.11.23 / ver1.1</v>
+        <v>2023.12.14 / ver1.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2466,16 +2466,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>66</v>
@@ -2486,23 +2486,23 @@
         <v>91</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -2510,12 +2510,12 @@
         <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
